--- a/match.xlsx
+++ b/match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASPL\Downloads\2025badminton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461DA0D4-2947-4A24-9F05-0A794CA6E7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A6D31-F76C-4702-B765-8F89C3B22F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="15315" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>蕭人豪&amp;顏語緗</t>
   </si>
   <si>
-    <t>連叡宇</t>
-  </si>
-  <si>
     <t>曹嘉修&amp;劉怡伶</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   <si>
     <t>男雙</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>連睿宇</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -734,18 +734,18 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -760,10 +760,10 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,12 +786,12 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -806,15 +806,15 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -829,10 +829,10 @@
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -852,15 +852,15 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -875,15 +875,15 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -898,10 +898,10 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,15 +921,15 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -967,7 +967,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -990,15 +990,15 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1013,7 +1013,7 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1059,10 +1059,10 @@
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,12 +1085,12 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1105,7 +1105,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1128,15 +1128,15 @@
         <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1154,12 +1154,12 @@
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1174,7 +1174,7 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -1194,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,15 +1220,15 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -1240,18 +1240,18 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -1266,7 +1266,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1309,7 +1309,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -1338,7 +1338,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,15 +1358,15 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1381,7 +1381,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -1404,15 +1404,15 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -1430,12 +1430,12 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -1447,13 +1447,13 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1476,12 +1476,12 @@
         <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -1493,7 +1493,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -1516,18 +1516,18 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -1539,10 +1539,10 @@
         <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -1568,12 +1568,12 @@
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
         <v>48</v>
@@ -1608,18 +1608,18 @@
         <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
         <v>40</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -1657,15 +1657,15 @@
         <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -1677,18 +1677,18 @@
         <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -1700,18 +1700,18 @@
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -1723,18 +1723,18 @@
         <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -1746,18 +1746,18 @@
         <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -1769,18 +1769,18 @@
         <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -1792,13 +1792,13 @@
         <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
         <v>74</v>
-      </c>
-      <c r="G48" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/match.xlsx
+++ b/match.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASPL\Downloads\2025badminton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A6D31-F76C-4702-B765-8F89C3B22F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47D293-23ED-4CAE-8317-F12C2DAA1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="2700" windowWidth="15315" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$49</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -282,6 +285,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="181" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,10 +348,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,11 +700,13 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
@@ -701,10 +716,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -724,10 +739,10 @@
       <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
@@ -747,10 +762,10 @@
       <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -770,10 +785,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -793,10 +808,10 @@
       <c r="A5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
@@ -814,150 +829,150 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
@@ -975,114 +990,114 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
         <v>74</v>
@@ -1090,45 +1105,45 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
         <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
         <v>74</v>
@@ -1136,91 +1151,91 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
         <v>74</v>
@@ -1228,229 +1243,229 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
+        <v>79</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>74</v>
@@ -1458,104 +1473,104 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D37" t="s">
         <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
@@ -1575,10 +1590,10 @@
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D39" t="s">
@@ -1598,10 +1613,10 @@
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D40" t="s">
@@ -1621,10 +1636,10 @@
       <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D41" t="s">
@@ -1644,10 +1659,10 @@
       <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D42" t="s">
@@ -1667,10 +1682,10 @@
       <c r="A43" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D43" t="s">
@@ -1690,10 +1705,10 @@
       <c r="A44" t="s">
         <v>79</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D44" t="s">
@@ -1713,10 +1728,10 @@
       <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D45" t="s">
@@ -1736,10 +1751,10 @@
       <c r="A46" t="s">
         <v>82</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D46" t="s">
@@ -1759,10 +1774,10 @@
       <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D47" t="s">
@@ -1782,10 +1797,10 @@
       <c r="A48" t="s">
         <v>82</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D48" t="s">
@@ -1802,10 +1817,10 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D49" t="s">
@@ -1816,6 +1831,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G49" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G49">
+      <sortCondition ref="B1:B49"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/match.xlsx
+++ b/match.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASPL\Downloads\2025badminton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1F7A0-0FF5-4C47-987F-8371CCB1FD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA282E54-D455-48A5-97D4-831F4FD34AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1770" windowWidth="15315" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$49</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="93">
   <si>
     <t>組別</t>
   </si>
@@ -286,6 +286,34 @@
   </si>
   <si>
     <t>賽程編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比分1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比分2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男雙B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男雙A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混雙A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混雙B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +357,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -352,11 +380,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -366,6 +405,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,7 +762,7 @@
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -745,8 +787,17 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -772,7 +823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -798,12 +849,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -824,7 +875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -850,7 +901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
@@ -876,7 +927,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -902,7 +953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -928,12 +979,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -954,7 +1005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -980,12 +1031,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -1006,12 +1057,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -1032,12 +1083,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
@@ -1058,7 +1109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>28</v>
       </c>
@@ -1084,12 +1135,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -1110,7 +1161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1167,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
@@ -1219,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -1271,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -1323,7 +1374,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -1401,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -1427,7 +1478,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>19</v>
@@ -1453,7 +1504,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>21</v>
@@ -1479,7 +1530,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>22</v>
@@ -1557,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
@@ -1583,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>24</v>
@@ -1635,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>24</v>
@@ -1661,7 +1712,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>25</v>
@@ -1687,7 +1738,7 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>25</v>
@@ -1739,7 +1790,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -1791,7 +1842,7 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
@@ -1983,11 +2034,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H49" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-      <sortCondition ref="D1:D49"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/match.xlsx
+++ b/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASPL\Downloads\2025badminton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA282E54-D455-48A5-97D4-831F4FD34AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FBAB0-684E-4789-A406-8C2513DFA898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9420" yWindow="1770" windowWidth="15315" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,6 +822,12 @@
       <c r="H2" t="s">
         <v>73</v>
       </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">

--- a/match.xlsx
+++ b/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASPL\Downloads\2025badminton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FBAB0-684E-4789-A406-8C2513DFA898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F98AD-3A9C-4103-A015-3515CD6BFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9420" yWindow="1770" windowWidth="15315" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,12 +822,6 @@
       <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">

--- a/match.xlsx
+++ b/match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASPL\Downloads\2025badminton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F98AD-3A9C-4103-A015-3515CD6BFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90990777-5E50-4138-A315-31D043B4E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1770" windowWidth="15315" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,28 +822,34 @@
       <c r="H2" t="s">
         <v>73</v>
       </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>73</v>
@@ -851,48 +857,54 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>63</v>
@@ -903,62 +915,68 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>73</v>
       </c>
+      <c r="I7">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -967,76 +985,88 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>73</v>
       </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -1045,305 +1075,335 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>73</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
         <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
       </c>
       <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
         <v>50</v>
       </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
         <v>35</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>39</v>
       </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1369,434 +1429,470 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
       </c>
       <c r="H25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="J31">
         <v>19</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E32" t="s">
         <v>34</v>
       </c>
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>43</v>
       </c>
       <c r="H32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
       <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
         <v>52</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>44</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I39">
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
@@ -1805,65 +1901,71 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41">
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1889,7 +1991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1915,35 +2017,35 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>78</v>
@@ -1955,45 +2057,45 @@
         <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
         <v>68</v>
       </c>
       <c r="H46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2034,7 +2136,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K49" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
+      <sortCondition ref="A1:A49"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/match.xlsx
+++ b/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASPL\Downloads\2025badminton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90990777-5E50-4138-A315-31D043B4E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C38C53-10FB-46CC-A963-C434FC9CD288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,80 +831,86 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>73</v>
       </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
       <c r="I4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>63</v>
@@ -912,54 +918,66 @@
       <c r="H5" t="s">
         <v>73</v>
       </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
         <v>82</v>
       </c>
-      <c r="H6" t="s">
-        <v>73</v>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>73</v>
@@ -968,15 +986,15 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -985,77 +1003,83 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J8">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
+      <c r="J9">
         <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
         <v>73</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J10">
         <v>21</v>
@@ -1063,10 +1087,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -1075,19 +1099,19 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11">
         <v>21</v>
@@ -1095,31 +1119,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>21</v>
@@ -1127,213 +1151,255 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>73</v>
       </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" t="s">
-        <v>50</v>
+      <c r="I19">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>21</v>
@@ -1341,63 +1407,63 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
         <v>73</v>
       </c>
       <c r="I21">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22">
         <v>21</v>
@@ -1428,471 +1494,471 @@
       <c r="H23" t="s">
         <v>47</v>
       </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I24">
         <v>21</v>
       </c>
       <c r="J24">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="I25">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29">
-        <v>21</v>
-      </c>
-      <c r="J29">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31">
-        <v>21</v>
-      </c>
-      <c r="J31">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
         <v>73</v>
       </c>
-      <c r="I32">
-        <v>16</v>
-      </c>
-      <c r="J32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
         <v>35</v>
       </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
       <c r="H35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
       <c r="F36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
         <v>47</v>
       </c>
-      <c r="G36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="H38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39">
-        <v>21</v>
-      </c>
-      <c r="J39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
@@ -1901,71 +1967,65 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>34</v>
       </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41">
-        <v>21</v>
-      </c>
-      <c r="J41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1991,7 +2051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2017,35 +2077,35 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>78</v>
@@ -2057,45 +2117,45 @@
         <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
         <v>68</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2138,7 +2198,7 @@
   </sheetData>
   <autoFilter ref="A1:K49" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
-      <sortCondition ref="A1:A49"/>
+      <sortCondition ref="C1:C49"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/match.xlsx
+++ b/match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASPL\Downloads\2025badminton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C38C53-10FB-46CC-A963-C434FC9CD288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6EB6A6-3E28-49DE-ABD7-031FEE96B345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1770" windowWidth="15315" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="C41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,86 +831,86 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>73</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>63</v>
@@ -919,7 +919,7 @@
         <v>73</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>21</v>
@@ -927,57 +927,57 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>21</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>73</v>
@@ -986,15 +986,15 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -1003,83 +1003,83 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J8">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9">
-        <v>21</v>
-      </c>
       <c r="J9">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>73</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>21</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>21</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <v>21</v>
@@ -1151,31 +1151,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>21</v>
@@ -1183,223 +1183,223 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
       <c r="I14">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
         <v>64</v>
       </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
       <c r="I15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>21</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
         <v>73</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J17">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J18">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19">
-        <v>21</v>
-      </c>
       <c r="J19">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20">
         <v>21</v>
@@ -1407,63 +1407,63 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
         <v>73</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J21">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22">
         <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22">
-        <v>19</v>
       </c>
       <c r="J22">
         <v>21</v>
@@ -1503,159 +1503,159 @@
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <v>21</v>
       </c>
       <c r="J24">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I25">
         <v>21</v>
       </c>
       <c r="J25">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I26">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I27">
         <v>21</v>
       </c>
       <c r="J27">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I28">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J28">
         <v>21</v>
@@ -1663,302 +1663,368 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="I29">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="I30">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34">
+        <v>21</v>
+      </c>
+      <c r="J34">
         <v>12</v>
       </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" t="s">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="F35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>36</v>
-      </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
       <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
         <v>52</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>44</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="I37">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I39">
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
@@ -1967,65 +2033,83 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I40">
+        <v>13</v>
+      </c>
+      <c r="J40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41">
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I42">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2051,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2077,35 +2161,35 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>78</v>
@@ -2117,45 +2201,45 @@
         <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
         <v>68</v>
       </c>
       <c r="H46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2198,7 +2282,7 @@
   </sheetData>
   <autoFilter ref="A1:K49" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
-      <sortCondition ref="C1:C49"/>
+      <sortCondition ref="A1:A49"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
